--- a/data/건국대_커리큘럼.xlsx
+++ b/data/건국대_커리큘럼.xlsx
@@ -1,19 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tcs\bitSlide\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{718D4A8C-12B8-4AE0-B218-4C719134BBAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA96D0F0-B7B1-4675-A4A6-84BD87D4DC29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26640" yWindow="1780" windowWidth="25120" windowHeight="15510" xr2:uid="{195A8535-2419-466A-8EB2-898878BDDF4C}"/>
+    <workbookView xWindow="-36270" yWindow="980" windowWidth="35330" windowHeight="19430" activeTab="2" xr2:uid="{195A8535-2419-466A-8EB2-898878BDDF4C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="---" sheetId="3" r:id="rId2"/>
+    <sheet name="202309" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="53">
   <si>
     <t>주차</t>
   </si>
@@ -173,6 +175,87 @@
     <t>휴가</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
+  <si>
+    <t>데이터 사이언스 문법</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터 문법(dplyr)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>시각화 문법(ggplot)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>표 문법(gt)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>추석</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>챗GPT 문서화 프로그래밍과 출판</t>
+  </si>
+  <si>
+    <t>쿼토(Quarto) 기본기, HTML/PDF/웹슬라이드 제작</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Paramterized Documents</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>LaTeX 기본기, bitPublish 과학기술 출판</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>함수형, 병렬 프로그래밍, 기계학습</t>
+  </si>
+  <si>
+    <t>데이터 분석 함수형 프로그래밍 (purrr)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>빅데이터 처리를 위한 병렬 프로그래밍</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tidymodels 기계학습과 MLOps</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>OPL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(OpenAI, Pinecone, Langchain)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 프레임워크</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -181,7 +264,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -223,6 +306,31 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -244,7 +352,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -319,13 +427,65 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -374,6 +534,33 @@
     <xf numFmtId="176" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -384,6 +571,30 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -702,7 +913,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CCC2B36-DD6B-4B3A-974C-B294599F8F05}">
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
@@ -733,10 +944,10 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A2" s="16">
+      <c r="A2" s="25">
         <v>1</v>
       </c>
-      <c r="B2" s="18">
+      <c r="B2" s="27">
         <v>45108</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -750,8 +961,8 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A3" s="17"/>
-      <c r="B3" s="19"/>
+      <c r="A3" s="26"/>
+      <c r="B3" s="28"/>
       <c r="C3" s="15"/>
       <c r="D3" s="3" t="s">
         <v>32</v>
@@ -759,8 +970,8 @@
       <c r="E3" s="6"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A4" s="17"/>
-      <c r="B4" s="19"/>
+      <c r="A4" s="26"/>
+      <c r="B4" s="28"/>
       <c r="C4" s="15"/>
       <c r="D4" s="4" t="s">
         <v>33</v>
@@ -768,10 +979,10 @@
       <c r="E4" s="7"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A5" s="16">
+      <c r="A5" s="25">
         <v>2</v>
       </c>
-      <c r="B5" s="18">
+      <c r="B5" s="27">
         <v>45115</v>
       </c>
       <c r="C5" s="8" t="s">
@@ -785,8 +996,8 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A6" s="17"/>
-      <c r="B6" s="19"/>
+      <c r="A6" s="26"/>
+      <c r="B6" s="28"/>
       <c r="C6" s="15"/>
       <c r="D6" s="10" t="s">
         <v>7</v>
@@ -794,10 +1005,10 @@
       <c r="E6" s="6"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A7" s="16">
+      <c r="A7" s="25">
         <v>3</v>
       </c>
-      <c r="B7" s="18">
+      <c r="B7" s="27">
         <v>45122</v>
       </c>
       <c r="C7" s="8" t="s">
@@ -811,8 +1022,8 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A8" s="17"/>
-      <c r="B8" s="19"/>
+      <c r="A8" s="26"/>
+      <c r="B8" s="28"/>
       <c r="C8" s="15"/>
       <c r="D8" s="10" t="s">
         <v>9</v>
@@ -820,10 +1031,10 @@
       <c r="E8" s="6"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A9" s="16">
+      <c r="A9" s="25">
         <v>4</v>
       </c>
-      <c r="B9" s="18">
+      <c r="B9" s="27">
         <v>45129</v>
       </c>
       <c r="C9" s="8" t="s">
@@ -837,8 +1048,8 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A10" s="17"/>
-      <c r="B10" s="19"/>
+      <c r="A10" s="26"/>
+      <c r="B10" s="28"/>
       <c r="C10" s="15"/>
       <c r="D10" s="9" t="s">
         <v>12</v>
@@ -846,8 +1057,8 @@
       <c r="E10" s="6"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A11" s="17"/>
-      <c r="B11" s="19"/>
+      <c r="A11" s="26"/>
+      <c r="B11" s="28"/>
       <c r="C11" s="15"/>
       <c r="D11" s="10" t="s">
         <v>13</v>
@@ -855,10 +1066,10 @@
       <c r="E11" s="7"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A12" s="16">
+      <c r="A12" s="25">
         <v>5</v>
       </c>
-      <c r="B12" s="18">
+      <c r="B12" s="27">
         <v>45136</v>
       </c>
       <c r="C12" s="8" t="s">
@@ -872,8 +1083,8 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A13" s="17"/>
-      <c r="B13" s="19"/>
+      <c r="A13" s="26"/>
+      <c r="B13" s="28"/>
       <c r="C13" s="15"/>
       <c r="D13" s="9" t="s">
         <v>16</v>
@@ -881,8 +1092,8 @@
       <c r="E13" s="6"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A14" s="17"/>
-      <c r="B14" s="19"/>
+      <c r="A14" s="26"/>
+      <c r="B14" s="28"/>
       <c r="C14" s="15"/>
       <c r="D14" s="10" t="s">
         <v>17</v>
@@ -907,10 +1118,10 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A16" s="16">
+      <c r="A16" s="25">
         <v>6</v>
       </c>
-      <c r="B16" s="18">
+      <c r="B16" s="27">
         <v>45150</v>
       </c>
       <c r="C16" s="8" t="s">
@@ -924,8 +1135,8 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A17" s="17"/>
-      <c r="B17" s="19"/>
+      <c r="A17" s="26"/>
+      <c r="B17" s="28"/>
       <c r="C17" s="15"/>
       <c r="D17" s="9" t="s">
         <v>21</v>
@@ -933,8 +1144,8 @@
       <c r="E17" s="6"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A18" s="17"/>
-      <c r="B18" s="19"/>
+      <c r="A18" s="26"/>
+      <c r="B18" s="28"/>
       <c r="C18" s="15"/>
       <c r="D18" s="10" t="s">
         <v>22</v>
@@ -942,10 +1153,10 @@
       <c r="E18" s="7"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A19" s="16">
+      <c r="A19" s="25">
         <v>7</v>
       </c>
-      <c r="B19" s="18">
+      <c r="B19" s="27">
         <v>45157</v>
       </c>
       <c r="C19" s="8" t="s">
@@ -959,8 +1170,8 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A20" s="17"/>
-      <c r="B20" s="19"/>
+      <c r="A20" s="26"/>
+      <c r="B20" s="28"/>
       <c r="C20" s="15"/>
       <c r="D20" s="9" t="s">
         <v>25</v>
@@ -968,8 +1179,8 @@
       <c r="E20" s="6"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A21" s="17"/>
-      <c r="B21" s="19"/>
+      <c r="A21" s="26"/>
+      <c r="B21" s="28"/>
       <c r="C21" s="15"/>
       <c r="D21" s="10" t="s">
         <v>26</v>
@@ -977,10 +1188,10 @@
       <c r="E21" s="7"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A22" s="16">
+      <c r="A22" s="25">
         <v>8</v>
       </c>
-      <c r="B22" s="18">
+      <c r="B22" s="27">
         <v>45164</v>
       </c>
       <c r="C22" s="8" t="s">
@@ -994,8 +1205,8 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A23" s="17"/>
-      <c r="B23" s="19"/>
+      <c r="A23" s="26"/>
+      <c r="B23" s="28"/>
       <c r="C23" s="15"/>
       <c r="D23" s="9" t="s">
         <v>29</v>
@@ -1003,8 +1214,8 @@
       <c r="E23" s="6"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A24" s="17"/>
-      <c r="B24" s="19"/>
+      <c r="A24" s="26"/>
+      <c r="B24" s="28"/>
       <c r="C24" s="15"/>
       <c r="D24" s="10" t="s">
         <v>30</v>
@@ -1034,4 +1245,515 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C3C8709-1BC1-46BB-9BFC-AA477ECE2A22}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetData/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{256ABB22-2F21-4B50-A48F-E88D81AC1DDD}">
+  <dimension ref="A1:E36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="38.75" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.75" style="20" customWidth="1"/>
+    <col min="3" max="3" width="28.25" style="22" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="56.83203125" style="22" customWidth="1"/>
+    <col min="5" max="5" width="21.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A1" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A2" s="35">
+        <v>1</v>
+      </c>
+      <c r="B2" s="36">
+        <v>45171</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A3" s="35"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="16"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A4" s="35"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="18"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A5" s="35">
+        <v>2</v>
+      </c>
+      <c r="B5" s="36">
+        <f>B2+7</f>
+        <v>45178</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A6" s="35"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="16"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A7" s="35">
+        <v>3</v>
+      </c>
+      <c r="B7" s="36">
+        <f>B5+7</f>
+        <v>45185</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A8" s="35"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="16"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A9" s="35">
+        <v>4</v>
+      </c>
+      <c r="B9" s="29">
+        <f>B7+7</f>
+        <v>45192</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A10" s="35"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="16"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A11" s="35"/>
+      <c r="B11" s="31"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="18"/>
+    </row>
+    <row r="12" spans="1:5" ht="23.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" s="19">
+        <v>45199</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="17"/>
+      <c r="E12" s="18"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A13" s="32">
+        <v>5</v>
+      </c>
+      <c r="B13" s="29">
+        <v>45206</v>
+      </c>
+      <c r="C13" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A14" s="33"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14" s="18"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A15" s="34"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="E15" s="18"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A16" s="35">
+        <v>6</v>
+      </c>
+      <c r="B16" s="29">
+        <f>B13+7</f>
+        <v>45213</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A17" s="35"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" s="16"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A18" s="35"/>
+      <c r="B18" s="31"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" s="18"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A19" s="32">
+        <f>A16+1</f>
+        <v>7</v>
+      </c>
+      <c r="B19" s="29">
+        <f>B16+7</f>
+        <v>45220</v>
+      </c>
+      <c r="C19" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="E19" s="16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A20" s="33"/>
+      <c r="B20" s="30"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="E20" s="18"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A21" s="34"/>
+      <c r="B21" s="31"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="E21" s="18"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A22" s="32">
+        <f t="shared" ref="A22" si="0">A19+1</f>
+        <v>8</v>
+      </c>
+      <c r="B22" s="29">
+        <f>B19+7</f>
+        <v>45227</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E22" s="16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A23" s="33"/>
+      <c r="B23" s="30"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E23" s="16"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A24" s="34"/>
+      <c r="B24" s="31"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E24" s="18"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A25" s="32">
+        <f t="shared" ref="A25" si="1">A22+1</f>
+        <v>9</v>
+      </c>
+      <c r="B25" s="29">
+        <f>B22+7</f>
+        <v>45234</v>
+      </c>
+      <c r="C25" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D25" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="E25" s="16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A26" s="33"/>
+      <c r="B26" s="30"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="E26" s="18"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A27" s="34"/>
+      <c r="B27" s="31"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="E27" s="18"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A28" s="32">
+        <f t="shared" ref="A28" si="2">A25+1</f>
+        <v>10</v>
+      </c>
+      <c r="B28" s="29">
+        <f>B25+7</f>
+        <v>45241</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D28" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E28" s="16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A29" s="33"/>
+      <c r="B29" s="30"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E29" s="16"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A30" s="34"/>
+      <c r="B30" s="31"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E30" s="18"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A31" s="32">
+        <f t="shared" ref="A31" si="3">A28+1</f>
+        <v>11</v>
+      </c>
+      <c r="B31" s="29">
+        <f>B28+7</f>
+        <v>45248</v>
+      </c>
+      <c r="C31" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D31" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31" s="16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A32" s="33"/>
+      <c r="B32" s="30"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E32" s="16"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A33" s="34"/>
+      <c r="B33" s="31"/>
+      <c r="C33" s="23"/>
+      <c r="D33" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="E33" s="18"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A34" s="32">
+        <f t="shared" ref="A34" si="4">A31+1</f>
+        <v>12</v>
+      </c>
+      <c r="B34" s="29">
+        <f>B31+7</f>
+        <v>45255</v>
+      </c>
+      <c r="C34" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E34" s="16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A35" s="33"/>
+      <c r="B35" s="30"/>
+      <c r="C35" s="23"/>
+      <c r="D35" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E35" s="16"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A36" s="34"/>
+      <c r="B36" s="31"/>
+      <c r="C36" s="23"/>
+      <c r="D36" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E36" s="18"/>
+    </row>
+  </sheetData>
+  <mergeCells count="24">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="A34:A36"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A31:A33"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="B34:B36"/>
+  </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>